--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Slit2-Robo1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Slit2-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0676570281108045</v>
+        <v>0.09783033333333334</v>
       </c>
       <c r="H2">
-        <v>0.0676570281108045</v>
+        <v>0.293491</v>
       </c>
       <c r="I2">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="J2">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.454354791691104</v>
+        <v>0.6629413333333334</v>
       </c>
       <c r="N2">
-        <v>0.454354791691104</v>
+        <v>1.988824</v>
       </c>
       <c r="O2">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="P2">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="Q2">
-        <v>0.03074029491372374</v>
+        <v>0.06485577162044445</v>
       </c>
       <c r="R2">
-        <v>0.03074029491372374</v>
+        <v>0.583701944584</v>
       </c>
       <c r="S2">
-        <v>0.0001134668722822473</v>
+        <v>0.0002220654651657149</v>
       </c>
       <c r="T2">
-        <v>0.0001134668722822473</v>
+        <v>0.0002220654651657149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0676570281108045</v>
+        <v>0.09783033333333334</v>
       </c>
       <c r="H3">
-        <v>0.0676570281108045</v>
+        <v>0.293491</v>
       </c>
       <c r="I3">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="J3">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.7621594695223</v>
+        <v>29.811843</v>
       </c>
       <c r="N3">
-        <v>29.7621594695223</v>
+        <v>89.435529</v>
       </c>
       <c r="O3">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="P3">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="Q3">
-        <v>2.013619259867717</v>
+        <v>2.916502537971</v>
       </c>
       <c r="R3">
-        <v>2.013619259867717</v>
+        <v>26.248522841739</v>
       </c>
       <c r="S3">
-        <v>0.007432559772953936</v>
+        <v>0.009986073352758607</v>
       </c>
       <c r="T3">
-        <v>0.007432559772953936</v>
+        <v>0.009986073352758607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0676570281108045</v>
+        <v>0.09783033333333334</v>
       </c>
       <c r="H4">
-        <v>0.0676570281108045</v>
+        <v>0.293491</v>
       </c>
       <c r="I4">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="J4">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.42501822026953</v>
+        <v>3.723095</v>
       </c>
       <c r="N4">
-        <v>3.42501822026953</v>
+        <v>11.169285</v>
       </c>
       <c r="O4">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="P4">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="Q4">
-        <v>0.2317265540087932</v>
+        <v>0.3642316248816667</v>
       </c>
       <c r="R4">
-        <v>0.2317265540087932</v>
+        <v>3.278084623935</v>
       </c>
       <c r="S4">
-        <v>0.0008553362087747118</v>
+        <v>0.001247125169996662</v>
       </c>
       <c r="T4">
-        <v>0.0008553362087747118</v>
+        <v>0.001247125169996662</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.87998957390241</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H5">
-        <v>7.87998957390241</v>
+        <v>24.890459</v>
       </c>
       <c r="I5">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="J5">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.454354791691104</v>
+        <v>0.6629413333333334</v>
       </c>
       <c r="N5">
-        <v>0.454354791691104</v>
+        <v>1.988824</v>
       </c>
       <c r="O5">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="P5">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="Q5">
-        <v>3.580311021378501</v>
+        <v>5.500304692246222</v>
       </c>
       <c r="R5">
-        <v>3.580311021378501</v>
+        <v>49.50274223021599</v>
       </c>
       <c r="S5">
-        <v>0.01321544554252508</v>
+        <v>0.01883298416654396</v>
       </c>
       <c r="T5">
-        <v>0.01321544554252508</v>
+        <v>0.01883298416654396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.87998957390241</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H6">
-        <v>7.87998957390241</v>
+        <v>24.890459</v>
       </c>
       <c r="I6">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="J6">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.7621594695223</v>
+        <v>29.811843</v>
       </c>
       <c r="N6">
-        <v>29.7621594695223</v>
+        <v>89.435529</v>
       </c>
       <c r="O6">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="P6">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="Q6">
-        <v>234.5255063166566</v>
+        <v>247.343485301979</v>
       </c>
       <c r="R6">
-        <v>234.5255063166566</v>
+        <v>2226.091367717811</v>
       </c>
       <c r="S6">
-        <v>0.8656675463539963</v>
+        <v>0.8469014360162</v>
       </c>
       <c r="T6">
-        <v>0.8656675463539963</v>
+        <v>0.8469014360162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.87998957390241</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H7">
-        <v>7.87998957390241</v>
+        <v>24.890459</v>
       </c>
       <c r="I7">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="J7">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.42501822026953</v>
+        <v>3.723095</v>
       </c>
       <c r="N7">
-        <v>3.42501822026953</v>
+        <v>11.169285</v>
       </c>
       <c r="O7">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="P7">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="Q7">
-        <v>26.98910786614968</v>
+        <v>30.88984781686833</v>
       </c>
       <c r="R7">
-        <v>26.98910786614968</v>
+        <v>278.008630351815</v>
       </c>
       <c r="S7">
-        <v>0.09962069862553707</v>
+        <v>0.1057665070195336</v>
       </c>
       <c r="T7">
-        <v>0.09962069862553707</v>
+        <v>0.1057665070195336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -903,49 +906,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.105454934781418</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H8">
-        <v>0.105454934781418</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I8">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="J8">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.454354791691104</v>
+        <v>0.6629413333333334</v>
       </c>
       <c r="N8">
-        <v>0.454354791691104</v>
+        <v>1.988824</v>
       </c>
       <c r="O8">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="P8">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="Q8">
-        <v>0.04791395492541013</v>
+        <v>0.001871925344888889</v>
       </c>
       <c r="R8">
-        <v>0.04791395492541013</v>
+        <v>0.016847328104</v>
       </c>
       <c r="S8">
-        <v>0.0001768573339754045</v>
+        <v>6.409452267424795E-06</v>
       </c>
       <c r="T8">
-        <v>0.0001768573339754045</v>
+        <v>6.409452267424795E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,10 +956,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -965,49 +968,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.105454934781418</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H9">
-        <v>0.105454934781418</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I9">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="J9">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.7621594695223</v>
+        <v>29.811843</v>
       </c>
       <c r="N9">
-        <v>29.7621594695223</v>
+        <v>89.435529</v>
       </c>
       <c r="O9">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="P9">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="Q9">
-        <v>3.138566585812636</v>
+        <v>0.084178707351</v>
       </c>
       <c r="R9">
-        <v>3.138566585812636</v>
+        <v>0.757608366159</v>
       </c>
       <c r="S9">
-        <v>0.01158490297315733</v>
+        <v>0.0002882269894859404</v>
       </c>
       <c r="T9">
-        <v>0.01158490297315733</v>
+        <v>0.0002882269894859404</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.002823666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.008470999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.0003306320849418846</v>
+      </c>
+      <c r="J10">
+        <v>0.0003306320849418846</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.723095</v>
+      </c>
+      <c r="N10">
+        <v>11.169285</v>
+      </c>
+      <c r="O10">
+        <v>0.1088691776384809</v>
+      </c>
+      <c r="P10">
+        <v>0.1088691776384809</v>
+      </c>
+      <c r="Q10">
+        <v>0.01051277924833333</v>
+      </c>
+      <c r="R10">
+        <v>0.09461501323499999</v>
+      </c>
+      <c r="S10">
+        <v>3.599564318851932E-05</v>
+      </c>
+      <c r="T10">
+        <v>3.599564318851932E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.105454934781418</v>
-      </c>
-      <c r="H10">
-        <v>0.105454934781418</v>
-      </c>
-      <c r="I10">
-        <v>0.01309494662393045</v>
-      </c>
-      <c r="J10">
-        <v>0.01309494662393045</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.42501822026953</v>
-      </c>
-      <c r="N10">
-        <v>3.42501822026953</v>
-      </c>
-      <c r="O10">
-        <v>0.1018092211511095</v>
-      </c>
-      <c r="P10">
-        <v>0.1018092211511095</v>
-      </c>
-      <c r="Q10">
-        <v>0.3611850730436916</v>
-      </c>
-      <c r="R10">
-        <v>0.3611850730436916</v>
-      </c>
-      <c r="S10">
-        <v>0.00133318631679771</v>
-      </c>
-      <c r="T10">
-        <v>0.00133318631679771</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.142734</v>
+      </c>
+      <c r="H11">
+        <v>0.428202</v>
+      </c>
+      <c r="I11">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="J11">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6629413333333334</v>
+      </c>
+      <c r="N11">
+        <v>1.988824</v>
+      </c>
+      <c r="O11">
+        <v>0.01938545156182102</v>
+      </c>
+      <c r="P11">
+        <v>0.01938545156182102</v>
+      </c>
+      <c r="Q11">
+        <v>0.094624268272</v>
+      </c>
+      <c r="R11">
+        <v>0.851618414448</v>
+      </c>
+      <c r="S11">
+        <v>0.0003239924778439183</v>
+      </c>
+      <c r="T11">
+        <v>0.0003239924778439183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.142734</v>
+      </c>
+      <c r="H12">
+        <v>0.428202</v>
+      </c>
+      <c r="I12">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="J12">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>29.811843</v>
+      </c>
+      <c r="N12">
+        <v>89.435529</v>
+      </c>
+      <c r="O12">
+        <v>0.8717453707996982</v>
+      </c>
+      <c r="P12">
+        <v>0.8717453707996982</v>
+      </c>
+      <c r="Q12">
+        <v>4.255163598762</v>
+      </c>
+      <c r="R12">
+        <v>38.296472388858</v>
+      </c>
+      <c r="S12">
+        <v>0.01456963444125353</v>
+      </c>
+      <c r="T12">
+        <v>0.01456963444125353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.142734</v>
+      </c>
+      <c r="H13">
+        <v>0.428202</v>
+      </c>
+      <c r="I13">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="J13">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.723095</v>
+      </c>
+      <c r="N13">
+        <v>11.169285</v>
+      </c>
+      <c r="O13">
+        <v>0.1088691776384809</v>
+      </c>
+      <c r="P13">
+        <v>0.1088691776384809</v>
+      </c>
+      <c r="Q13">
+        <v>0.53141224173</v>
+      </c>
+      <c r="R13">
+        <v>4.78271017557</v>
+      </c>
+      <c r="S13">
+        <v>0.001819549805762053</v>
+      </c>
+      <c r="T13">
+        <v>0.001819549805762053</v>
       </c>
     </row>
   </sheetData>
